--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_0_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_0_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2297279.770789857</v>
+        <v>2295392.189273456</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>582397.8414209126</v>
+        <v>679300.9705798725</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>69.07086245343525</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>292.4116868811958</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -817,28 +817,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>14.46389722690833</v>
+        <v>32.63347393903398</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>140.9971593390836</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>43.65743608854551</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.72683757586869</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>156.1271626621472</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1139,10 +1139,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>5.983388191319379</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>270.7773459850751</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>25.31590541686235</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>83.82466560786639</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634824</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>212.5171541480196</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>126.9503829520906</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>69.22939604860797</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,22 +1813,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>271.3644504870097</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2047,22 +2047,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>220.771215851065</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151921</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2242,10 +2242,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2296,16 +2296,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>256.6289271138777</v>
+        <v>220.8421368098666</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>15.1915405694973</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>161.0243494581875</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2716,13 +2716,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>256.6289271138777</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>195.5840668773371</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>24.91999910250535</v>
       </c>
       <c r="D31" t="n">
-        <v>81.15517842044504</v>
+        <v>93.4122163896553</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801216</v>
+        <v>91.23070601801211</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437419</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897907</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571496</v>
+        <v>55.21598883571492</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523576</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.934386695271</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.319741708034</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
         <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463132</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3518,7 +3518,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274074</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,22 +3661,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
         <v>42.28735533463131</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4325,7 +4325,7 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533142</v>
@@ -4334,46 +4334,46 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2572.351853615953</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2572.351853615953</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>2572.351853615953</v>
       </c>
       <c r="V2" t="n">
-        <v>1717.512263598976</v>
+        <v>2572.351853615953</v>
       </c>
       <c r="W2" t="n">
-        <v>1717.512263598976</v>
+        <v>2572.351853615953</v>
       </c>
       <c r="X2" t="n">
-        <v>1717.512263598976</v>
+        <v>2198.886095354873</v>
       </c>
       <c r="Y2" t="n">
-        <v>1422.14692331494</v>
+        <v>1808.746763379062</v>
       </c>
     </row>
     <row r="3">
@@ -4383,43 +4383,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4428,7 +4428,7 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
         <v>2646.935720430048</v>
@@ -4452,7 +4452,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>223.2349977106394</v>
       </c>
       <c r="C4" t="n">
-        <v>713.5189870075369</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D4" t="n">
-        <v>563.4023475952011</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E4" t="n">
-        <v>415.489254012808</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F4" t="n">
-        <v>268.5993065148977</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>444.0275768541695</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>444.0275768541695</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>444.0275768541695</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>223.2349977106394</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>944.4614752479206</v>
+        <v>2090.781606227855</v>
       </c>
       <c r="C5" t="n">
-        <v>575.4989583075089</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="D5" t="n">
-        <v>217.2332597007584</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
-        <v>217.2332597007584</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>210.287758951555</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>196.3643548901459</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>196.3643548901459</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2421.844493571426</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2421.844493571426</v>
       </c>
       <c r="V5" t="n">
-        <v>2057.295728843236</v>
+        <v>2090.781606227855</v>
       </c>
       <c r="W5" t="n">
-        <v>1704.527073573122</v>
+        <v>2090.781606227855</v>
       </c>
       <c r="X5" t="n">
-        <v>1331.061315312042</v>
+        <v>2090.781606227855</v>
       </c>
       <c r="Y5" t="n">
-        <v>1331.061315312042</v>
+        <v>2090.781606227855</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4750,25 +4750,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>808.0839286340174</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>439.1214116936057</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>80.85571308685519</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
         <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4838,16 +4838,16 @@
         <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323012</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>643.4576048045491</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>354.283994459117</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5027,43 +5027,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805468</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.2170914602857</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515099</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.70982261913</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643326</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899129</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231265</v>
@@ -5072,19 +5072,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K12" t="n">
-        <v>97.21709146028587</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L12" t="n">
-        <v>711.1141612171746</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M12" t="n">
-        <v>1479.482307609636</v>
+        <v>1220.905903778934</v>
       </c>
       <c r="N12" t="n">
-        <v>2283.893885873787</v>
+        <v>2025.317482043085</v>
       </c>
       <c r="O12" t="n">
-        <v>2623.573505376138</v>
+        <v>2274.070896127047</v>
       </c>
       <c r="P12" t="n">
-        <v>2623.573505376138</v>
+        <v>2456.714373740398</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>674.6944526764913</v>
+        <v>581.2185435662825</v>
       </c>
       <c r="C13" t="n">
-        <v>505.7582697485844</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D13" t="n">
-        <v>355.6416303362487</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E13" t="n">
-        <v>355.6416303362487</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
         <v>779.0639759471194</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247861</v>
       </c>
       <c r="U13" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247861</v>
       </c>
       <c r="V13" t="n">
-        <v>1084.332468404748</v>
+        <v>709.4512536188993</v>
       </c>
       <c r="W13" t="n">
-        <v>1084.332468404748</v>
+        <v>581.2185435662825</v>
       </c>
       <c r="X13" t="n">
-        <v>856.3429175067311</v>
+        <v>581.2185435662825</v>
       </c>
       <c r="Y13" t="n">
-        <v>856.3429175067311</v>
+        <v>581.2185435662825</v>
       </c>
     </row>
     <row r="14">
@@ -5276,25 +5276,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.627437207831</v>
@@ -5303,19 +5303,19 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5358,16 +5358,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="K15" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L15" t="n">
-        <v>711.1141612171746</v>
+        <v>802.0403666355636</v>
       </c>
       <c r="M15" t="n">
-        <v>1479.482307609636</v>
+        <v>1570.408513028025</v>
       </c>
       <c r="N15" t="n">
-        <v>2283.893885873787</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>595.5296422260202</v>
+        <v>714.6010158349782</v>
       </c>
       <c r="C16" t="n">
-        <v>426.5934592981133</v>
+        <v>545.6648329070713</v>
       </c>
       <c r="D16" t="n">
-        <v>426.5934592981133</v>
+        <v>395.5481934947355</v>
       </c>
       <c r="E16" t="n">
-        <v>278.6803657157202</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U16" t="n">
-        <v>1298.996260473455</v>
+        <v>1224.810765015469</v>
       </c>
       <c r="V16" t="n">
-        <v>1044.311772267568</v>
+        <v>1224.810765015469</v>
       </c>
       <c r="W16" t="n">
-        <v>1044.311772267568</v>
+        <v>935.3935949785083</v>
       </c>
       <c r="X16" t="n">
-        <v>816.3222213695504</v>
+        <v>935.3935949785083</v>
       </c>
       <c r="Y16" t="n">
-        <v>595.5296422260202</v>
+        <v>714.6010158349782</v>
       </c>
     </row>
     <row r="17">
@@ -5513,10 +5513,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5540,19 +5540,19 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5592,22 +5592,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028587</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L18" t="n">
-        <v>97.21709146028587</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M18" t="n">
-        <v>865.5852378527475</v>
+        <v>2056.693778606512</v>
       </c>
       <c r="N18" t="n">
-        <v>1669.996816116898</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O18" t="n">
-        <v>2339.460577419558</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P18" t="n">
         <v>2623.573505376138</v>
@@ -5647,7 +5647,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
         <v>97.21709146028587</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>964.9199289028916</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U19" t="n">
-        <v>675.7912901164499</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V19" t="n">
-        <v>675.7912901164499</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W19" t="n">
-        <v>675.7912901164499</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>447.8017392184325</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>447.8017392184325</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5729,13 +5729,13 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
         <v>904.3190116155888</v>
@@ -5750,13 +5750,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5771,7 +5771,7 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014293</v>
@@ -5832,22 +5832,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L21" t="n">
-        <v>97.21709146028587</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M21" t="n">
-        <v>334.2881267578666</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N21" t="n">
-        <v>1138.699705022017</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>244.1070389581962</v>
+        <v>542.136771952925</v>
       </c>
       <c r="C22" t="n">
-        <v>244.1070389581962</v>
+        <v>542.136771952925</v>
       </c>
       <c r="D22" t="n">
-        <v>244.1070389581962</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E22" t="n">
         <v>244.1070389581962</v>
@@ -5911,10 +5911,10 @@
         <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
         <v>779.0639759471194</v>
@@ -5944,16 +5944,16 @@
         <v>986.0022165609669</v>
       </c>
       <c r="V22" t="n">
-        <v>731.3177283550799</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="W22" t="n">
-        <v>472.0965898562135</v>
+        <v>762.9293510964551</v>
       </c>
       <c r="X22" t="n">
-        <v>244.1070389581962</v>
+        <v>762.9293510964551</v>
       </c>
       <c r="Y22" t="n">
-        <v>244.1070389581962</v>
+        <v>542.136771952925</v>
       </c>
     </row>
     <row r="23">
@@ -5978,34 +5978,34 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6069,22 +6069,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L24" t="n">
-        <v>97.21709146028587</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M24" t="n">
-        <v>334.2881267578666</v>
+        <v>1819.161927111987</v>
       </c>
       <c r="N24" t="n">
-        <v>1138.699705022017</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>579.0685056491548</v>
+        <v>653.6713633309777</v>
       </c>
       <c r="C25" t="n">
-        <v>563.7235151749151</v>
+        <v>653.6713633309777</v>
       </c>
       <c r="D25" t="n">
-        <v>563.7235151749151</v>
+        <v>503.5547239186419</v>
       </c>
       <c r="E25" t="n">
-        <v>415.8104215925219</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F25" t="n">
-        <v>415.8104215925219</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028587</v>
@@ -6151,7 +6151,7 @@
         <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
         <v>779.0639759471194</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557903</v>
+        <v>1136.345402434882</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557903</v>
+        <v>1136.345402434882</v>
       </c>
       <c r="V25" t="n">
-        <v>1498.916270557903</v>
+        <v>881.660914228995</v>
       </c>
       <c r="W25" t="n">
-        <v>1209.499100520942</v>
+        <v>881.660914228995</v>
       </c>
       <c r="X25" t="n">
-        <v>981.5095496229246</v>
+        <v>653.6713633309777</v>
       </c>
       <c r="Y25" t="n">
-        <v>760.7169704793945</v>
+        <v>653.6713633309777</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
@@ -6224,10 +6224,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6303,19 +6303,19 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028587</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>711.1141612171746</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M27" t="n">
-        <v>1479.482307609636</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N27" t="n">
-        <v>2283.893885873787</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
         <v>2623.573505376138</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>244.1070389581963</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C28" t="n">
-        <v>244.1070389581963</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D28" t="n">
-        <v>244.1070389581963</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581963</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
         <v>97.21709146028587</v>
@@ -6385,10 +6385,10 @@
         <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
         <v>779.0639759471194</v>
@@ -6412,22 +6412,22 @@
         <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347409</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609668</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>731.3177283550799</v>
+        <v>955.103143565574</v>
       </c>
       <c r="W28" t="n">
-        <v>472.0965898562136</v>
+        <v>665.6859735286134</v>
       </c>
       <c r="X28" t="n">
-        <v>244.1070389581963</v>
+        <v>468.1263100161517</v>
       </c>
       <c r="Y28" t="n">
-        <v>244.1070389581963</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6479,34 +6479,34 @@
         <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6528,37 +6528,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028587</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M30" t="n">
-        <v>865.5852378527475</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N30" t="n">
-        <v>1138.699705022017</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.5324299542179</v>
+        <v>662.8712180401458</v>
       </c>
       <c r="C31" t="n">
-        <v>439.5324299542179</v>
+        <v>637.699501774989</v>
       </c>
       <c r="D31" t="n">
-        <v>357.5575022567987</v>
+        <v>543.3437276440241</v>
       </c>
       <c r="E31" t="n">
-        <v>265.4052739557764</v>
+        <v>451.1914993430017</v>
       </c>
       <c r="F31" t="n">
-        <v>265.4052739557764</v>
+        <v>360.0624171264622</v>
       </c>
       <c r="G31" t="n">
-        <v>152.9908175569677</v>
+        <v>247.6479607276535</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569677</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
@@ -6622,13 +6622,13 @@
         <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933501</v>
+        <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667508</v>
+        <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962051</v>
+        <v>997.6688721962053</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
@@ -6640,31 +6640,31 @@
         <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1791.966918252998</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.62813016707</v>
+        <v>1791.966918252998</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661999</v>
+        <v>1558.599144747927</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737483</v>
+        <v>1359.67552182341</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818929</v>
+        <v>1126.019217067821</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652462</v>
+        <v>953.790531451174</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030869</v>
+        <v>788.7588175890147</v>
       </c>
     </row>
     <row r="32">
@@ -6677,25 +6677,25 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
@@ -6710,37 +6710,37 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6765,28 +6765,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L33" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
-        <v>2056.693778606511</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6871,10 +6871,10 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q34" t="n">
         <v>2038.520840384657</v>
@@ -6883,10 +6883,10 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U34" t="n">
         <v>1489.892037025263</v>
@@ -6898,7 +6898,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y34" t="n">
         <v>772.288612901032</v>
@@ -6926,7 +6926,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6938,16 +6938,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G37" t="n">
         <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028586</v>
@@ -7096,10 +7096,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7239,40 +7239,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>508.1073603047986</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1122.004430061687</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="M39" t="n">
-        <v>1890.372576454149</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="N39" t="n">
-        <v>1890.372576454149</v>
+        <v>1478.840140721312</v>
       </c>
       <c r="O39" t="n">
-        <v>1890.372576454149</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F40" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>177.0503551525399</v>
@@ -7336,7 +7336,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,25 +7394,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7421,7 +7421,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7445,16 +7445,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7491,22 +7491,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L42" t="n">
-        <v>711.1141612171745</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M42" t="n">
-        <v>1138.699705022018</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N42" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,43 +7543,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108319</v>
+        <v>659.4602391108325</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229661</v>
+        <v>559.3441472229666</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506714</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083197</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504505</v>
+        <v>320.8847398504506</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103122</v>
+        <v>221.5295092103123</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649686</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O43" t="n">
         <v>1688.186490350129</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384655</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986522</v>
@@ -7597,7 +7597,7 @@
         <v>1865.165908942115</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U43" t="n">
         <v>1489.892037025262</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862496</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045197</v>
+        <v>924.2611010045201</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010305</v>
+        <v>772.2886129010311</v>
       </c>
     </row>
     <row r="44">
@@ -7725,25 +7725,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M45" t="n">
-        <v>334.2881267578673</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N45" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7789,13 +7789,13 @@
         <v>478.0475988506724</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7807,16 +7807,16 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254952</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649686</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O46" t="n">
         <v>1688.186490350129</v>
@@ -7828,7 +7828,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942116</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8769,7 +8769,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8784,13 +8784,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298194</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9243,10 +9243,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9255,10 +9255,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,28 +9477,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>381.5997261417969</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>381.5997261417969</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9966,7 +9966,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -10127,7 +10127,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714807</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>407.2149112442121</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10841,7 +10841,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.314990659903</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10905,16 +10905,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11148,16 +11148,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,25 +11376,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>39.62048917580839</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>159.5726153845004</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>76.19165197432328</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,22 +23701,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>14.87290191156768</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23935,22 +23935,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7763452073242831</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,10 +24130,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24184,16 +24184,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>29.89407122271331</v>
+        <v>65.68086152672436</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>152.0552805291305</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,25 +24412,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>60.52321160020175</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24604,13 +24604,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24652,7 +24652,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>29.89407122271331</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>30.12558851170004</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>87.12356536756542</v>
       </c>
       <c r="D31" t="n">
-        <v>12.2570379692103</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437423</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897911</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523572</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>874667.5952923311</v>
+        <v>874667.595292331</v>
       </c>
     </row>
     <row r="12">
@@ -26314,46 +26314,46 @@
         <v>554203.1946583912</v>
       </c>
       <c r="C2" t="n">
+        <v>554203.1946583913</v>
+      </c>
+      <c r="D2" t="n">
+        <v>554203.1946583909</v>
+      </c>
+      <c r="E2" t="n">
+        <v>527889.2306459069</v>
+      </c>
+      <c r="F2" t="n">
+        <v>527889.2306459069</v>
+      </c>
+      <c r="G2" t="n">
+        <v>527889.230645907</v>
+      </c>
+      <c r="H2" t="n">
+        <v>527889.2306459069</v>
+      </c>
+      <c r="I2" t="n">
+        <v>527889.230645907</v>
+      </c>
+      <c r="J2" t="n">
+        <v>527889.230645907</v>
+      </c>
+      <c r="K2" t="n">
+        <v>549209.8854161142</v>
+      </c>
+      <c r="L2" t="n">
+        <v>554203.1946583914</v>
+      </c>
+      <c r="M2" t="n">
         <v>554203.1946583912</v>
-      </c>
-      <c r="D2" t="n">
-        <v>554203.1946583908</v>
-      </c>
-      <c r="E2" t="n">
-        <v>527889.2306459068</v>
-      </c>
-      <c r="F2" t="n">
-        <v>527889.2306459066</v>
-      </c>
-      <c r="G2" t="n">
-        <v>527889.2306459069</v>
-      </c>
-      <c r="H2" t="n">
-        <v>527889.2306459066</v>
-      </c>
-      <c r="I2" t="n">
-        <v>527889.2306459068</v>
-      </c>
-      <c r="J2" t="n">
-        <v>527889.2306459068</v>
-      </c>
-      <c r="K2" t="n">
-        <v>549209.8854161144</v>
-      </c>
-      <c r="L2" t="n">
-        <v>554203.1946583912</v>
-      </c>
-      <c r="M2" t="n">
-        <v>554203.1946583913</v>
       </c>
       <c r="N2" t="n">
         <v>554203.1946583909</v>
       </c>
       <c r="O2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583908</v>
       </c>
       <c r="P2" t="n">
-        <v>554203.1946583911</v>
+        <v>554203.1946583914</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768965</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284561</v>
+        <v>44162.60530284564</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086692</v>
+        <v>10342.90680086685</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284561</v>
+        <v>44162.60530284565</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
@@ -26424,40 +26424,40 @@
         <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
+        <v>787.7936905757878</v>
+      </c>
+      <c r="F4" t="n">
+        <v>787.7936905758477</v>
+      </c>
+      <c r="G4" t="n">
+        <v>787.7936905758477</v>
+      </c>
+      <c r="H4" t="n">
+        <v>787.7936905758437</v>
+      </c>
+      <c r="I4" t="n">
         <v>787.7936905758696</v>
       </c>
-      <c r="F4" t="n">
-        <v>787.7936905758513</v>
-      </c>
-      <c r="G4" t="n">
-        <v>787.7936905758438</v>
-      </c>
-      <c r="H4" t="n">
-        <v>787.7936905758411</v>
-      </c>
-      <c r="I4" t="n">
-        <v>787.7936905758695</v>
-      </c>
       <c r="J4" t="n">
-        <v>787.7936905758515</v>
+        <v>787.7936905758412</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477237</v>
+        <v>18952.41620477239</v>
       </c>
       <c r="L4" t="n">
+        <v>23206.58093189633</v>
+      </c>
+      <c r="M4" t="n">
         <v>23206.58093189635</v>
       </c>
-      <c r="M4" t="n">
-        <v>23206.58093189634</v>
-      </c>
       <c r="N4" t="n">
-        <v>23206.58093189637</v>
+        <v>23206.58093189632</v>
       </c>
       <c r="O4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189636</v>
       </c>
       <c r="P4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189635</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26467,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871665</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871665</v>
@@ -26494,22 +26494,22 @@
         <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-257682.9018001818</v>
+        <v>-257682.9018001819</v>
       </c>
       <c r="C6" t="n">
-        <v>332284.9774143627</v>
+        <v>332284.9774143628</v>
       </c>
       <c r="D6" t="n">
-        <v>332284.9774143623</v>
+        <v>332284.9774143625</v>
       </c>
       <c r="E6" t="n">
-        <v>-90045.92547028202</v>
+        <v>-90143.38459625423</v>
       </c>
       <c r="F6" t="n">
-        <v>435114.1110066142</v>
+        <v>435016.6518806422</v>
       </c>
       <c r="G6" t="n">
-        <v>435114.1110066143</v>
+        <v>435016.6518806423</v>
       </c>
       <c r="H6" t="n">
-        <v>435114.1110066141</v>
+        <v>435016.6518806422</v>
       </c>
       <c r="I6" t="n">
-        <v>435114.1110066142</v>
+        <v>435016.6518806423</v>
       </c>
       <c r="J6" t="n">
-        <v>258690.8918140212</v>
+        <v>258593.4326880493</v>
       </c>
       <c r="K6" t="n">
-        <v>389466.6553782736</v>
+        <v>389448.1616403391</v>
       </c>
       <c r="L6" t="n">
-        <v>422938.6011056025</v>
+        <v>422938.6011056029</v>
       </c>
       <c r="M6" t="n">
-        <v>298480.4926726324</v>
+        <v>298480.4926726322</v>
       </c>
       <c r="N6" t="n">
         <v>433281.5079064692</v>
       </c>
       <c r="O6" t="n">
-        <v>433281.5079064696</v>
+        <v>433281.5079064691</v>
       </c>
       <c r="P6" t="n">
-        <v>389118.9026036237</v>
+        <v>389118.902603624</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964061</v>
+      </c>
+      <c r="M2" t="n">
         <v>68.13189012964067</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964065</v>
       </c>
-      <c r="N2" t="n">
-        <v>68.13189012964065</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964064</v>
-      </c>
       <c r="P2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26744,13 +26744,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541004</v>
@@ -26771,7 +26771,7 @@
         <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541003</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26932,13 +26932,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108365</v>
+        <v>12.92863350108356</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.638741237014</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855705</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>105.3448503555363</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>93.82625177485778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-2.202682480856311e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>3.552713678800501e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27537,28 +27537,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>152.7829238717195</v>
+        <v>134.6133471595938</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27594,7 +27594,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>10.93415690577766</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>172.7908842691123</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.1051426060686</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27822,13 +27822,13 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>56.01837628787166</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27859,10 +27859,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>375.9469818809424</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27910,13 +27910,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>98.95375469339393</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>141.9938968421885</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28062,13 +28062,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>141.2104398502179</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-1.800799509510398e-12</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-4.831690603168681e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-5.334050603231563e-14</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-1.386056343235277e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29338,7 +29338,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855705</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,19 +31118,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
-        <v>87.78329382423951</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31142,25 +31142,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>149.897181251634</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31370,7 +31370,7 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>132.9984977071298</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
         <v>205.8702969983122</v>
@@ -31382,10 +31382,10 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>139.4326257134861</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>50.44659727034983</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,19 +31592,19 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>87.78329382423996</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
@@ -31622,19 +31622,19 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323596</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
         <v>34.18755300444946</v>
@@ -31771,13 +31771,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647497</v>
@@ -31792,7 +31792,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31844,31 +31844,31 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
         <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>91.84465193776663</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>98.44906376001094</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,10 +31908,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
         <v>45.03122946298631</v>
@@ -31920,10 +31920,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
         <v>234.725964217132</v>
@@ -31932,7 +31932,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31944,13 +31944,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,10 +31987,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,37 +31999,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,25 +32072,25 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>64.61606107314731</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>91.84465193776663</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -32105,7 +32105,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
         <v>34.18755300444946</v>
@@ -32245,13 +32245,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647497</v>
@@ -32266,7 +32266,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,25 +32312,25 @@
         <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>224.6051223555639</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>102.4943942860903</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -32342,7 +32342,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,10 +32382,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
         <v>45.03122946298631</v>
@@ -32394,10 +32394,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
         <v>234.725964217132</v>
@@ -32406,7 +32406,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32418,13 +32418,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,28 +32549,28 @@
         <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>392.6063366508801</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>100.1578341526431</v>
@@ -32786,28 +32786,28 @@
         <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>315.8821359054324</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
         <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>100.1578341526431</v>
@@ -33023,10 +33023,10 @@
         <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
         <v>387.8120847358986</v>
@@ -33035,10 +33035,10 @@
         <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O27" t="n">
-        <v>91.84465193776663</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -33260,28 +33260,28 @@
         <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
         <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>392.6063366508801</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>100.1578341526431</v>
@@ -33427,7 +33427,7 @@
         <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565511</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927187</v>
@@ -33442,7 +33442,7 @@
         <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446464</v>
       </c>
       <c r="S32" t="n">
         <v>76.06970478104651</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622983</v>
@@ -33509,7 +33509,7 @@
         <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>224.6051223555648</v>
+        <v>392.6063366508801</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -33658,7 +33658,7 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041472</v>
       </c>
       <c r="L35" t="n">
         <v>526.7962671304441</v>
@@ -33670,7 +33670,7 @@
         <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540871</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622983</v>
@@ -33886,7 +33886,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33895,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,34 +33968,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>70.6463630526294</v>
       </c>
       <c r="P39" t="n">
-        <v>258.0283171645702</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677465</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34059,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34208,28 +34208,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>108.3335598738803</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>100.1578341526431</v>
@@ -34445,28 +34445,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>100.1578341526431</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839191</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>365.2844632307148</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35030,10 +35030,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>323.920986939093</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
@@ -35419,19 +35419,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594836</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N12" t="n">
         <v>812.5369477415666</v>
       </c>
       <c r="O12" t="n">
-        <v>343.1107267700517</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>168.5445774098385</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
@@ -35574,7 +35574,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056037</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,19 +35726,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>296.9020265967323</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O15" t="n">
-        <v>343.1107267700517</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
@@ -35811,7 +35811,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056037</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
@@ -35893,19 +35893,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415666</v>
+        <v>572.6057846157842</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178378</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>286.9827555116972</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
@@ -36048,7 +36048,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056037</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M21" t="n">
-        <v>239.4656922197785</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415666</v>
+        <v>740.6069989111003</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178378</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714619</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>548.1681014290174</v>
       </c>
       <c r="M24" t="n">
-        <v>239.4656922197785</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
         <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178378</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
         <v>620.0980502594836</v>
@@ -36683,10 +36683,10 @@
         <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415666</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O27" t="n">
-        <v>343.1107267700517</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36847,7 +36847,7 @@
         <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109105</v>
       </c>
       <c r="Q29" t="n">
         <v>350.4995841502049</v>
@@ -36911,25 +36911,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M30" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>275.8731991608788</v>
+        <v>740.6069989111003</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178378</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714619</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412256</v>
+        <v>67.7110267941226</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584676</v>
@@ -37002,13 +37002,13 @@
         <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043179</v>
+        <v>94.42895660043183</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221109</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
         <v>803.580930408112</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005179</v>
@@ -37157,7 +37157,7 @@
         <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>572.6057846157851</v>
+        <v>740.6069989111003</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,7 +37306,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303314</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109073</v>
@@ -37318,7 +37318,7 @@
         <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951457</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
         <v>570.6060255109124</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502436</v>
@@ -37546,25 +37546,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502032</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594836</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>321.9124378849145</v>
       </c>
       <c r="P39" t="n">
-        <v>442.5166783901772</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>431.9045897018619</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,7 +37950,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>239.4656922197792</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
